--- a/STA 663L-2.xlsx
+++ b/STA 663L-2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Lori\Class Permission #s\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26900" windowHeight="19080"/>
   </bookViews>
   <sheets>
-    <sheet name="ps-2" sheetId="1" r:id="rId1"/>
+    <sheet name="ps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="29">
   <si>
     <t>Permission</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>Christine Chai</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Min Jung Park</t>
+  </si>
+  <si>
+    <t>Andrew Wong</t>
+  </si>
+  <si>
+    <t>Shahryar Minhas</t>
+  </si>
+  <si>
+    <t>Joseph Marion</t>
+  </si>
+  <si>
+    <t>David Klemish</t>
+  </si>
+  <si>
+    <t>Benjamin Radford</t>
+  </si>
+  <si>
+    <t>Andrew Kephart</t>
+  </si>
+  <si>
+    <t>Siyang Li</t>
+  </si>
+  <si>
+    <t>LR3</t>
+  </si>
+  <si>
+    <t>Dropped</t>
   </si>
 </sst>
 </file>
@@ -701,7 +734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +769,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,24 +956,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>329292</v>
       </c>
@@ -1010,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>933487</v>
       </c>
@@ -1043,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>198135</v>
       </c>
@@ -1076,20 +1111,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>897750</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2221809</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4">
+        <v>41962</v>
+      </c>
       <c r="H5" s="4">
         <v>42025</v>
       </c>
@@ -1103,20 +1146,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>134520</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1320989</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41962</v>
+      </c>
       <c r="H6" s="4">
         <v>42025</v>
       </c>
@@ -1130,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>921805</v>
       </c>
@@ -1157,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>460278</v>
       </c>
@@ -1184,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>642151</v>
       </c>
@@ -1211,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>111672</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>103578</v>
       </c>
@@ -1265,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>925473</v>
       </c>
@@ -1292,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>675285</v>
       </c>
@@ -1319,7 +1370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>659665</v>
       </c>
@@ -1346,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>824374</v>
       </c>
@@ -1373,7 +1424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>497537</v>
       </c>
@@ -1400,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>810639</v>
       </c>
@@ -1427,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>373284</v>
       </c>
@@ -1454,7 +1505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>489619</v>
       </c>
@@ -1481,7 +1532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>112579</v>
       </c>
@@ -1508,7 +1559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>976765</v>
       </c>
@@ -1517,11 +1568,17 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2008288</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4">
+        <v>41961</v>
+      </c>
       <c r="H21" s="4">
         <v>42025</v>
       </c>
@@ -1535,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>389177</v>
       </c>
@@ -1544,11 +1601,17 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2188339</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41961</v>
+      </c>
       <c r="H22" s="4">
         <v>42025</v>
       </c>
@@ -1562,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>705640</v>
       </c>
@@ -1571,11 +1634,17 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2096960</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4">
+        <v>41961</v>
+      </c>
       <c r="H23" s="4">
         <v>42025</v>
       </c>
@@ -1589,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>372244</v>
       </c>
@@ -1598,11 +1667,17 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1124922</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="4">
+        <v>41960</v>
+      </c>
       <c r="H24" s="4">
         <v>42025</v>
       </c>
@@ -1616,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>914495</v>
       </c>
@@ -1625,11 +1700,17 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1901054</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4">
+        <v>41957</v>
+      </c>
       <c r="H25" s="4">
         <v>42025</v>
       </c>
@@ -1643,7 +1724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>608560</v>
       </c>
@@ -1652,11 +1733,17 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2223473</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="4">
+        <v>41956</v>
+      </c>
       <c r="H26" s="4">
         <v>42025</v>
       </c>
@@ -1672,6 +1759,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/STA 663L-2.xlsx
+++ b/STA 663L-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26900" windowHeight="19080"/>
+    <workbookView xWindow="14540" yWindow="0" windowWidth="26900" windowHeight="19080"/>
   </bookViews>
   <sheets>
     <sheet name="ps" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="31">
   <si>
     <t>Permission</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Dropped</t>
+  </si>
+  <si>
+    <t>Zhe GAN</t>
+  </si>
+  <si>
+    <t>Sayan Patra</t>
   </si>
 </sst>
 </file>
@@ -956,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1517,7 +1523,9 @@
         <v>15</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="4">
         <v>42025</v>
@@ -1544,7 +1552,9 @@
         <v>15</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="4">
         <v>42025</v>

--- a/STA 663L-2.xlsx
+++ b/STA 663L-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="0" windowWidth="26900" windowHeight="19080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="ps" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>Permission</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Sayan Patra</t>
+  </si>
+  <si>
+    <t>Zhaorong Tian</t>
+  </si>
+  <si>
+    <t>Fan Li</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1469,7 +1475,9 @@
         <v>15</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="4">
         <v>42025</v>
@@ -1496,7 +1504,9 @@
         <v>15</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4">
         <v>42025</v>

--- a/STA 663L-2.xlsx
+++ b/STA 663L-2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="22820" yWindow="2680" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="ps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="34">
   <si>
     <t>Permission</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>Fan Li</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +273,22 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,7 +606,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -630,6 +649,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -646,7 +669,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -675,11 +698,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -958,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,7 +996,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1448,7 +1475,9 @@
         <v>15</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4">
         <v>42025</v>
@@ -1476,7 +1505,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="4">

--- a/STA 663L-2.xlsx
+++ b/STA 663L-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="2680" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="12920" yWindow="1240" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="ps" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
   <si>
     <t>Permission</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>chunyuan.li@duke.edu</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -653,6 +656,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -669,7 +676,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -700,6 +707,8 @@
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -707,6 +716,8 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -985,7 +996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,7 +1007,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1409,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="28">
       <c r="A14" s="3">
         <v>659665</v>
       </c>
@@ -1421,7 +1432,9 @@
         <v>15</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="4">
         <v>42025</v>
@@ -1448,7 +1461,9 @@
         <v>15</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="4">
         <v>42025</v>
